--- a/ITMO/homeworks/sims/attemt2/short data mg 2.xlsx
+++ b/ITMO/homeworks/sims/attemt2/short data mg 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\homeworks\sims\attemt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBCB9E-CDA2-4656-B818-F93DEA319ED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC23637-3A44-4594-A927-A7490529CDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B251" sqref="A251:B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5067,7 +5067,7 @@
         <v>478568</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" ref="E195:E258" si="3">B195/D195</f>
+        <f t="shared" ref="E195:E250" si="3">B195/D195</f>
         <v>5.5926430517711175E-5</v>
       </c>
       <c r="I195" s="3">
@@ -6399,10 +6399,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>30.901299999999999</v>
+        <v>31.025300000000001</v>
       </c>
       <c r="B251" s="1">
-        <v>0.99127799999999999</v>
+        <v>7.9302299999999999</v>
       </c>
       <c r="C251" s="1">
         <v>30.961300000000001</v>
@@ -6410,9 +6410,9 @@
       <c r="D251" s="1">
         <v>476645</v>
       </c>
-      <c r="E251" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0796987275645397E-6</v>
+      <c r="E251" s="1" t="e">
+        <f>#REF!/D251</f>
+        <v>#REF!</v>
       </c>
       <c r="I251" s="3">
         <v>31.025300000000001</v>
@@ -6423,10 +6423,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>31.025300000000001</v>
+        <v>31.1493</v>
       </c>
       <c r="B252" s="1">
-        <v>7.9302299999999999</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C252" s="1">
         <v>31.0853</v>
@@ -6435,7 +6435,7 @@
         <v>477062</v>
       </c>
       <c r="E252" s="1">
-        <f t="shared" si="3"/>
+        <f>B251/D252</f>
         <v>1.6623059476546026E-5</v>
       </c>
       <c r="I252" s="3">
@@ -6447,10 +6447,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>31.1493</v>
+        <v>31.273299999999999</v>
       </c>
       <c r="B253" s="1">
-        <v>5.9476699999999996</v>
+        <v>6.9389399999999997</v>
       </c>
       <c r="C253" s="1">
         <v>31.209299999999999</v>
@@ -6459,7 +6459,7 @@
         <v>477144</v>
       </c>
       <c r="E253" s="1">
-        <f t="shared" si="3"/>
+        <f>B252/D253</f>
         <v>1.2465146790067567E-5</v>
       </c>
       <c r="I253" s="3">
@@ -6471,10 +6471,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>31.273299999999999</v>
+        <v>31.397300000000001</v>
       </c>
       <c r="B254" s="1">
-        <v>6.9389399999999997</v>
+        <v>4.9563899999999999</v>
       </c>
       <c r="C254" s="1">
         <v>31.333300000000001</v>
@@ -6483,7 +6483,7 @@
         <v>477158</v>
       </c>
       <c r="E254" s="1">
-        <f t="shared" si="3"/>
+        <f>B253/D254</f>
         <v>1.4542227102972181E-5</v>
       </c>
       <c r="I254" s="3">
@@ -6495,10 +6495,10 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>31.397300000000001</v>
+        <v>31.5213</v>
       </c>
       <c r="B255" s="1">
-        <v>4.9563899999999999</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C255" s="1">
         <v>31.4573</v>
@@ -6507,7 +6507,7 @@
         <v>477743</v>
       </c>
       <c r="E255" s="1">
-        <f t="shared" si="3"/>
+        <f>B254/D255</f>
         <v>1.0374594708870668E-5</v>
       </c>
       <c r="I255" s="3">
@@ -6519,10 +6519,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>31.5213</v>
+        <v>31.645299999999999</v>
       </c>
       <c r="B256" s="1">
-        <v>5.9476699999999996</v>
+        <v>6.9389500000000002</v>
       </c>
       <c r="C256" s="1">
         <v>31.581299999999999</v>
@@ -6531,7 +6531,7 @@
         <v>479790</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" si="3"/>
+        <f>B255/D256</f>
         <v>1.2396402592801017E-5</v>
       </c>
       <c r="I256" s="3">
@@ -6543,10 +6543,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>31.645299999999999</v>
+        <v>31.769300000000001</v>
       </c>
       <c r="B257" s="1">
-        <v>6.9389500000000002</v>
+        <v>10.9041</v>
       </c>
       <c r="C257" s="1">
         <v>31.705300000000001</v>
@@ -6555,7 +6555,7 @@
         <v>480393</v>
       </c>
       <c r="E257" s="1">
-        <f t="shared" si="3"/>
+        <f>B256/D257</f>
         <v>1.444431954670447E-5</v>
       </c>
       <c r="I257" s="3">
@@ -6567,10 +6567,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>31.769300000000001</v>
+        <v>31.8933</v>
       </c>
       <c r="B258" s="1">
-        <v>10.9041</v>
+        <v>2.97383</v>
       </c>
       <c r="C258" s="1">
         <v>31.8293</v>
@@ -6579,7 +6579,7 @@
         <v>480791</v>
       </c>
       <c r="E258" s="1">
-        <f t="shared" si="3"/>
+        <f>B257/D258</f>
         <v>2.2679501072191451E-5</v>
       </c>
       <c r="I258" s="3">
@@ -6591,10 +6591,10 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>31.8933</v>
+        <v>32.017299999999999</v>
       </c>
       <c r="B259" s="1">
-        <v>2.97383</v>
+        <v>6.9389500000000002</v>
       </c>
       <c r="C259" s="1">
         <v>31.953299999999999</v>
@@ -6603,7 +6603,7 @@
         <v>477681</v>
       </c>
       <c r="E259" s="1">
-        <f t="shared" ref="E259:E301" si="4">B259/D259</f>
+        <f>B258/D259</f>
         <v>6.2255563859563178E-6</v>
       </c>
       <c r="I259" s="3">
@@ -6615,10 +6615,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>32.017299999999999</v>
+        <v>32.141300000000001</v>
       </c>
       <c r="B260" s="1">
-        <v>6.9389500000000002</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C260" s="1">
         <v>32.077300000000001</v>
@@ -6627,7 +6627,7 @@
         <v>476634</v>
       </c>
       <c r="E260" s="1">
-        <f t="shared" si="4"/>
+        <f>B259/D260</f>
         <v>1.4558235459493029E-5</v>
       </c>
       <c r="I260" s="3">
@@ -6639,7 +6639,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>32.141300000000001</v>
+        <v>32.265300000000003</v>
       </c>
       <c r="B261" s="1">
         <v>3.9651100000000001</v>
@@ -6651,7 +6651,7 @@
         <v>476982</v>
       </c>
       <c r="E261" s="1">
-        <f t="shared" si="4"/>
+        <f>B260/D261</f>
         <v>8.3129132755533756E-6</v>
       </c>
       <c r="I261" s="3">
@@ -6663,7 +6663,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>32.265300000000003</v>
+        <v>32.389299999999999</v>
       </c>
       <c r="B262" s="1">
         <v>3.9651100000000001</v>
@@ -6675,7 +6675,7 @@
         <v>476946</v>
       </c>
       <c r="E262" s="1">
-        <f t="shared" si="4"/>
+        <f>B261/D262</f>
         <v>8.3135407362678382E-6</v>
       </c>
       <c r="I262" s="3">
@@ -6687,10 +6687,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>32.389299999999999</v>
+        <v>32.513300000000001</v>
       </c>
       <c r="B263" s="1">
-        <v>3.9651100000000001</v>
+        <v>10.9041</v>
       </c>
       <c r="C263" s="1">
         <v>32.449300000000001</v>
@@ -6699,7 +6699,7 @@
         <v>477869</v>
       </c>
       <c r="E263" s="1">
-        <f t="shared" si="4"/>
+        <f>B262/D263</f>
         <v>8.2974832014631628E-6</v>
       </c>
       <c r="I263" s="3">
@@ -6711,10 +6711,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>32.513300000000001</v>
+        <v>32.637300000000003</v>
       </c>
       <c r="B264" s="1">
-        <v>10.9041</v>
+        <v>2.97384</v>
       </c>
       <c r="C264" s="1">
         <v>32.573300000000003</v>
@@ -6723,7 +6723,7 @@
         <v>479484</v>
       </c>
       <c r="E264" s="1">
-        <f t="shared" si="4"/>
+        <f>B263/D264</f>
         <v>2.2741321921065144E-5</v>
       </c>
       <c r="I264" s="3">
@@ -6735,10 +6735,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>32.637300000000003</v>
+        <v>32.761299999999999</v>
       </c>
       <c r="B265" s="1">
-        <v>2.97384</v>
+        <v>4.9563899999999999</v>
       </c>
       <c r="C265" s="1">
         <v>32.697299999999998</v>
@@ -6747,7 +6747,7 @@
         <v>480418</v>
       </c>
       <c r="E265" s="1">
-        <f t="shared" si="4"/>
+        <f>B264/D265</f>
         <v>6.1901094463571311E-6</v>
       </c>
       <c r="I265" s="3">
@@ -6759,10 +6759,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>32.761299999999999</v>
+        <v>32.885300000000001</v>
       </c>
       <c r="B266" s="1">
-        <v>4.9563899999999999</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C266" s="1">
         <v>32.821300000000001</v>
@@ -6771,7 +6771,7 @@
         <v>478634</v>
       </c>
       <c r="E266" s="1">
-        <f t="shared" si="4"/>
+        <f>B265/D266</f>
         <v>1.0355281906425368E-5</v>
       </c>
       <c r="I266" s="3">
@@ -6783,10 +6783,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>32.885300000000001</v>
+        <v>33.009300000000003</v>
       </c>
       <c r="B267" s="1">
-        <v>3.9651100000000001</v>
+        <v>8.9215</v>
       </c>
       <c r="C267" s="1">
         <v>32.945300000000003</v>
@@ -6795,7 +6795,7 @@
         <v>477772</v>
       </c>
       <c r="E267" s="1">
-        <f t="shared" si="4"/>
+        <f>B266/D267</f>
         <v>8.299167803889722E-6</v>
       </c>
       <c r="I267" s="3">
@@ -6807,10 +6807,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>33.009300000000003</v>
+        <v>33.133299999999998</v>
       </c>
       <c r="B268" s="1">
-        <v>8.9215</v>
+        <v>2.97383</v>
       </c>
       <c r="C268" s="1">
         <v>33.069299999999998</v>
@@ -6819,7 +6819,7 @@
         <v>476510</v>
       </c>
       <c r="E268" s="1">
-        <f t="shared" si="4"/>
+        <f>B267/D268</f>
         <v>1.8722587144026359E-5</v>
       </c>
       <c r="I268" s="3">
@@ -6831,10 +6831,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>33.133299999999998</v>
+        <v>33.257300000000001</v>
       </c>
       <c r="B269" s="1">
-        <v>2.97383</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C269" s="1">
         <v>33.193300000000001</v>
@@ -6843,7 +6843,7 @@
         <v>476709</v>
       </c>
       <c r="E269" s="1">
-        <f t="shared" si="4"/>
+        <f>B268/D269</f>
         <v>6.2382501693905508E-6</v>
       </c>
       <c r="I269" s="3">
@@ -6855,7 +6855,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>33.257300000000001</v>
+        <v>33.381300000000003</v>
       </c>
       <c r="B270" s="1">
         <v>3.9651100000000001</v>
@@ -6867,7 +6867,7 @@
         <v>476705</v>
       </c>
       <c r="E270" s="1">
-        <f t="shared" si="4"/>
+        <f>B269/D270</f>
         <v>8.3177436779559681E-6</v>
       </c>
       <c r="I270" s="3">
@@ -6879,10 +6879,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>33.381300000000003</v>
+        <v>33.505299999999998</v>
       </c>
       <c r="B271" s="1">
-        <v>3.9651100000000001</v>
+        <v>6.9389500000000002</v>
       </c>
       <c r="C271" s="1">
         <v>33.441299999999998</v>
@@ -6891,7 +6891,7 @@
         <v>475472</v>
       </c>
       <c r="E271" s="1">
-        <f t="shared" si="4"/>
+        <f>B270/D271</f>
         <v>8.3393133559915209E-6</v>
       </c>
       <c r="I271" s="3">
@@ -6903,10 +6903,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>33.505299999999998</v>
+        <v>33.629300000000001</v>
       </c>
       <c r="B272" s="1">
-        <v>6.9389500000000002</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C272" s="1">
         <v>33.565300000000001</v>
@@ -6915,7 +6915,7 @@
         <v>476351</v>
       </c>
       <c r="E272" s="1">
-        <f t="shared" si="4"/>
+        <f>B271/D272</f>
         <v>1.456688450323396E-5</v>
       </c>
       <c r="I272" s="3">
@@ -6927,10 +6927,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>33.629300000000001</v>
+        <v>33.753300000000003</v>
       </c>
       <c r="B273" s="1">
-        <v>1.9825600000000001</v>
+        <v>8.9215099999999996</v>
       </c>
       <c r="C273" s="1">
         <v>33.689300000000003</v>
@@ -6939,7 +6939,7 @@
         <v>476235</v>
       </c>
       <c r="E273" s="1">
-        <f t="shared" si="4"/>
+        <f>B272/D273</f>
         <v>4.1629867607378716E-6</v>
       </c>
       <c r="I273" s="3">
@@ -6951,10 +6951,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>33.753300000000003</v>
+        <v>33.877299999999998</v>
       </c>
       <c r="B274" s="1">
-        <v>8.9215099999999996</v>
+        <v>2.97384</v>
       </c>
       <c r="C274" s="1">
         <v>33.813299999999998</v>
@@ -6963,7 +6963,7 @@
         <v>478096</v>
       </c>
       <c r="E274" s="1">
-        <f t="shared" si="4"/>
+        <f>B273/D274</f>
         <v>1.8660499146614904E-5</v>
       </c>
       <c r="I274" s="3">
@@ -6975,10 +6975,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>33.877299999999998</v>
+        <v>34.001300000000001</v>
       </c>
       <c r="B275" s="1">
-        <v>2.97384</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C275" s="1">
         <v>33.9373</v>
@@ -6987,7 +6987,7 @@
         <v>478863</v>
       </c>
       <c r="E275" s="1">
-        <f t="shared" si="4"/>
+        <f>B274/D275</f>
         <v>6.2102104359702044E-6</v>
       </c>
       <c r="I275" s="3">
@@ -6999,10 +6999,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>34.001300000000001</v>
+        <v>34.125300000000003</v>
       </c>
       <c r="B276" s="1">
-        <v>1.9825600000000001</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C276" s="1">
         <v>34.061300000000003</v>
@@ -7011,7 +7011,7 @@
         <v>480401</v>
       </c>
       <c r="E276" s="1">
-        <f t="shared" si="4"/>
+        <f>B275/D276</f>
         <v>4.1268856642679766E-6</v>
       </c>
       <c r="I276" s="3">
@@ -7023,10 +7023,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>34.125300000000003</v>
+        <v>34.249299999999998</v>
       </c>
       <c r="B277" s="1">
-        <v>3.9651100000000001</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C277" s="1">
         <v>34.185299999999998</v>
@@ -7035,7 +7035,7 @@
         <v>480982</v>
       </c>
       <c r="E277" s="1">
-        <f t="shared" si="4"/>
+        <f>B276/D277</f>
         <v>8.2437804325317782E-6</v>
       </c>
       <c r="I277" s="3">
@@ -7047,7 +7047,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>34.249299999999998</v>
+        <v>34.3733</v>
       </c>
       <c r="B278" s="1">
         <v>5.9476699999999996</v>
@@ -7059,7 +7059,7 @@
         <v>479654</v>
       </c>
       <c r="E278" s="1">
-        <f t="shared" si="4"/>
+        <f>B277/D278</f>
         <v>1.239991744048835E-5</v>
       </c>
       <c r="I278" s="3">
@@ -7071,10 +7071,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>34.3733</v>
+        <v>34.497300000000003</v>
       </c>
       <c r="B279" s="1">
-        <v>5.9476699999999996</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C279" s="1">
         <v>34.433300000000003</v>
@@ -7083,7 +7083,7 @@
         <v>477624</v>
       </c>
       <c r="E279" s="1">
-        <f t="shared" si="4"/>
+        <f>B278/D279</f>
         <v>1.2452619633854245E-5</v>
       </c>
       <c r="I279" s="3">
@@ -7095,10 +7095,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>34.497300000000003</v>
+        <v>34.621299999999998</v>
       </c>
       <c r="B280" s="1">
-        <v>1.9825600000000001</v>
+        <v>7.9302299999999999</v>
       </c>
       <c r="C280" s="1">
         <v>34.557299999999998</v>
@@ -7107,7 +7107,7 @@
         <v>475597</v>
       </c>
       <c r="E280" s="1">
-        <f t="shared" si="4"/>
+        <f>B279/D280</f>
         <v>4.1685712903992244E-6</v>
       </c>
       <c r="I280" s="3">
@@ -7119,10 +7119,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>34.621299999999998</v>
+        <v>34.7453</v>
       </c>
       <c r="B281" s="1">
-        <v>7.9302299999999999</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C281" s="1">
         <v>34.6813</v>
@@ -7131,7 +7131,7 @@
         <v>476873</v>
       </c>
       <c r="E281" s="1">
-        <f t="shared" si="4"/>
+        <f>B280/D281</f>
         <v>1.6629647725914445E-5</v>
       </c>
       <c r="I281" s="3">
@@ -7143,10 +7143,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>34.7453</v>
+        <v>34.869300000000003</v>
       </c>
       <c r="B282" s="1">
-        <v>1.9825600000000001</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C282" s="1">
         <v>34.805300000000003</v>
@@ -7155,7 +7155,7 @@
         <v>480568</v>
       </c>
       <c r="E282" s="1">
-        <f t="shared" si="4"/>
+        <f>B281/D282</f>
         <v>4.1254515490003499E-6</v>
       </c>
       <c r="I282" s="3">
@@ -7167,10 +7167,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>34.869300000000003</v>
+        <v>34.993299999999998</v>
       </c>
       <c r="B283" s="1">
-        <v>5.9476699999999996</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C283" s="1">
         <v>34.929299999999998</v>
@@ -7179,7 +7179,7 @@
         <v>477685</v>
       </c>
       <c r="E283" s="1">
-        <f t="shared" si="4"/>
+        <f>B282/D283</f>
         <v>1.2451029444089724E-5</v>
       </c>
       <c r="I283" s="3">
@@ -7191,10 +7191,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>34.993299999999998</v>
+        <v>35.241300000000003</v>
       </c>
       <c r="B284" s="1">
-        <v>1.9825600000000001</v>
+        <v>2.97384</v>
       </c>
       <c r="C284" s="1">
         <v>35.0533</v>
@@ -7203,7 +7203,7 @@
         <v>475909</v>
       </c>
       <c r="E284" s="1">
-        <f t="shared" si="4"/>
+        <f>B283/D284</f>
         <v>4.1658384270942559E-6</v>
       </c>
       <c r="I284" s="3">
@@ -7215,10 +7215,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>35.1173</v>
+        <v>35.365299999999998</v>
       </c>
       <c r="B285" s="1">
-        <v>0.99127799999999999</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C285" s="1">
         <v>35.177300000000002</v>
@@ -7226,9 +7226,9 @@
       <c r="D285" s="1">
         <v>476667</v>
       </c>
-      <c r="E285" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0796027415365442E-6</v>
+      <c r="E285" s="1" t="e">
+        <f>#REF!/D285</f>
+        <v>#REF!</v>
       </c>
       <c r="I285" s="3">
         <v>35.365299999999998</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>35.241300000000003</v>
+        <v>35.4893</v>
       </c>
       <c r="B286" s="1">
-        <v>2.97384</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C286" s="1">
         <v>35.301299999999998</v>
@@ -7251,7 +7251,7 @@
         <v>479528</v>
       </c>
       <c r="E286" s="1">
-        <f t="shared" si="4"/>
+        <f>B284/D286</f>
         <v>6.20159823826763E-6</v>
       </c>
       <c r="I286" s="3">
@@ -7263,10 +7263,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>35.365299999999998</v>
+        <v>35.613300000000002</v>
       </c>
       <c r="B287" s="1">
-        <v>1.9825600000000001</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C287" s="1">
         <v>35.4253</v>
@@ -7275,7 +7275,7 @@
         <v>480169</v>
       </c>
       <c r="E287" s="1">
-        <f t="shared" si="4"/>
+        <f>B285/D287</f>
         <v>4.1288796236325132E-6</v>
       </c>
       <c r="I287" s="3">
@@ -7287,10 +7287,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>35.4893</v>
+        <v>35.737299999999998</v>
       </c>
       <c r="B288" s="1">
-        <v>3.9651100000000001</v>
+        <v>7.9302299999999999</v>
       </c>
       <c r="C288" s="1">
         <v>35.549300000000002</v>
@@ -7299,7 +7299,7 @@
         <v>476507</v>
       </c>
       <c r="E288" s="1">
-        <f t="shared" si="4"/>
+        <f>B286/D288</f>
         <v>8.3211998984275148E-6</v>
       </c>
       <c r="I288" s="3">
@@ -7311,10 +7311,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>35.613300000000002</v>
+        <v>35.8613</v>
       </c>
       <c r="B289" s="1">
-        <v>3.9651100000000001</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C289" s="1">
         <v>35.673299999999998</v>
@@ -7323,7 +7323,7 @@
         <v>477444</v>
       </c>
       <c r="E289" s="1">
-        <f t="shared" si="4"/>
+        <f>B287/D289</f>
         <v>8.3048692621543061E-6</v>
       </c>
       <c r="I289" s="3">
@@ -7335,10 +7335,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>35.737299999999998</v>
+        <v>35.985300000000002</v>
       </c>
       <c r="B290" s="1">
-        <v>7.9302299999999999</v>
+        <v>4.9563899999999999</v>
       </c>
       <c r="C290" s="1">
         <v>35.7973</v>
@@ -7347,7 +7347,7 @@
         <v>477160</v>
       </c>
       <c r="E290" s="1">
-        <f t="shared" si="4"/>
+        <f>B288/D290</f>
         <v>1.6619645401961605E-5</v>
       </c>
       <c r="I290" s="3">
@@ -7359,10 +7359,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>35.8613</v>
+        <v>36.109299999999998</v>
       </c>
       <c r="B291" s="1">
-        <v>5.9476699999999996</v>
+        <v>4.9563899999999999</v>
       </c>
       <c r="C291" s="1">
         <v>35.921300000000002</v>
@@ -7371,7 +7371,7 @@
         <v>481070</v>
       </c>
       <c r="E291" s="1">
-        <f t="shared" si="4"/>
+        <f>B289/D291</f>
         <v>1.2363419045045418E-5</v>
       </c>
       <c r="I291" s="3">
@@ -7383,10 +7383,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>35.985300000000002</v>
+        <v>36.2333</v>
       </c>
       <c r="B292" s="1">
-        <v>4.9563899999999999</v>
+        <v>5.9476699999999996</v>
       </c>
       <c r="C292" s="1">
         <v>36.045299999999997</v>
@@ -7395,7 +7395,7 @@
         <v>477686</v>
       </c>
       <c r="E292" s="1">
-        <f t="shared" si="4"/>
+        <f>B290/D292</f>
         <v>1.0375832659948166E-5</v>
       </c>
       <c r="I292" s="3">
@@ -7407,7 +7407,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>36.109299999999998</v>
+        <v>36.357300000000002</v>
       </c>
       <c r="B293" s="1">
         <v>4.9563899999999999</v>
@@ -7419,7 +7419,7 @@
         <v>478011</v>
       </c>
       <c r="E293" s="1">
-        <f t="shared" si="4"/>
+        <f>B291/D293</f>
         <v>1.0368778124352786E-5</v>
       </c>
       <c r="I293" s="3">
@@ -7431,10 +7431,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>36.2333</v>
+        <v>36.729300000000002</v>
       </c>
       <c r="B294" s="1">
-        <v>5.9476699999999996</v>
+        <v>3.9651100000000001</v>
       </c>
       <c r="C294" s="1">
         <v>36.293300000000002</v>
@@ -7443,7 +7443,7 @@
         <v>479797</v>
       </c>
       <c r="E294" s="1">
-        <f t="shared" si="4"/>
+        <f>B292/D294</f>
         <v>1.239622173544228E-5</v>
       </c>
       <c r="I294" s="3">
@@ -7455,10 +7455,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>36.357300000000002</v>
+        <v>36.853299999999997</v>
       </c>
       <c r="B295" s="1">
-        <v>4.9563899999999999</v>
+        <v>6.9389500000000002</v>
       </c>
       <c r="C295" s="1">
         <v>36.417299999999997</v>
@@ -7467,7 +7467,7 @@
         <v>481342</v>
       </c>
       <c r="E295" s="1">
-        <f t="shared" si="4"/>
+        <f>B293/D295</f>
         <v>1.0297023737799735E-5</v>
       </c>
       <c r="I295" s="3">
@@ -7479,10 +7479,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>36.481299999999997</v>
+        <v>36.9773</v>
       </c>
       <c r="B296" s="1">
-        <v>0.99127799999999999</v>
+        <v>1.9825600000000001</v>
       </c>
       <c r="C296" s="1">
         <v>36.5413</v>
@@ -7490,9 +7490,9 @@
       <c r="D296" s="1">
         <v>476904</v>
       </c>
-      <c r="E296" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0785692718031303E-6</v>
+      <c r="E296" s="1" t="e">
+        <f>#REF!/D296</f>
+        <v>#REF!</v>
       </c>
       <c r="I296" s="3">
         <v>36.9773</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>36.6053</v>
+        <v>37.101300000000002</v>
       </c>
       <c r="B297" s="1">
-        <v>0.99127799999999999</v>
+        <v>6.9389500000000002</v>
       </c>
       <c r="C297" s="1">
         <v>36.665300000000002</v>
@@ -7514,9 +7514,9 @@
       <c r="D297" s="1">
         <v>477064</v>
       </c>
-      <c r="E297" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0778721513256083E-6</v>
+      <c r="E297" s="1" t="e">
+        <f>#REF!/D297</f>
+        <v>#REF!</v>
       </c>
       <c r="I297" s="3">
         <v>37.101300000000002</v>
@@ -7526,12 +7526,6 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>36.729300000000002</v>
-      </c>
-      <c r="B298" s="1">
-        <v>3.9651100000000001</v>
-      </c>
       <c r="C298" s="1">
         <v>36.789299999999997</v>
       </c>
@@ -7539,17 +7533,11 @@
         <v>478784</v>
       </c>
       <c r="E298" s="1">
-        <f t="shared" si="4"/>
+        <f>B294/D298</f>
         <v>8.2816259524127792E-6</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <v>36.853299999999997</v>
-      </c>
-      <c r="B299" s="1">
-        <v>6.9389500000000002</v>
-      </c>
       <c r="C299" s="1">
         <v>36.9133</v>
       </c>
@@ -7557,17 +7545,11 @@
         <v>480618</v>
       </c>
       <c r="E299" s="1">
-        <f t="shared" si="4"/>
+        <f>B295/D299</f>
         <v>1.4437557478080306E-5</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <v>36.9773</v>
-      </c>
-      <c r="B300" s="1">
-        <v>1.9825600000000001</v>
-      </c>
       <c r="C300" s="1">
         <v>37.037300000000002</v>
       </c>
@@ -7575,17 +7557,11 @@
         <v>479673</v>
       </c>
       <c r="E300" s="1">
-        <f t="shared" si="4"/>
+        <f>B296/D300</f>
         <v>4.1331490411175951E-6</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <v>37.101300000000002</v>
-      </c>
-      <c r="B301" s="1">
-        <v>6.9389500000000002</v>
-      </c>
       <c r="C301" s="1">
         <v>37.161299999999997</v>
       </c>
@@ -7593,7 +7569,7 @@
         <v>477278</v>
       </c>
       <c r="E301" s="1">
-        <f t="shared" si="4"/>
+        <f>B297/D301</f>
         <v>1.4538591764129083E-5</v>
       </c>
     </row>
